--- a/tensiones_angulos_varios.xlsx
+++ b/tensiones_angulos_varios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,44 +491,74 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Pgen_Nudo1</t>
+          <t>Pgen_N1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Perdidas_Activa</t>
+          <t>Pperdida</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>P(B-&gt;A)_Linea1</t>
+          <t>Qperdida</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>P(B-&gt;A)_Linea2</t>
+          <t>P(B-&gt;A)_L1</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>P(A-&gt;B)_Linea3</t>
+          <t>P(B-&gt;A)_L2</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>P(Prim.)_Trafo1</t>
+          <t>P(A-&gt;B)_L3</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>P(Prim.)_Trafo2</t>
+          <t>Q(B-&gt;A)_L1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Q(B-&gt;A)_L2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Q(A-&gt;B)_L3</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>P(Prim.)_T1</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Q(Prim.)_T1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>P(Prim.)_T2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Q(Prim.)_T2</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -541,52 +571,70 @@
         <v>0.8338</v>
       </c>
       <c r="E2" t="n">
-        <v>-22.2443</v>
+        <v>-22.4064</v>
       </c>
       <c r="F2" t="n">
         <v>1.05</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2981</v>
+        <v>-0.5973000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>1.0193</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.5884</v>
+        <v>-2.834</v>
       </c>
       <c r="J2" t="n">
         <v>0.9743000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>-4.4299</v>
+        <v>-4.5479</v>
       </c>
       <c r="L2" t="n">
-        <v>3.8483</v>
+        <v>3.9484</v>
       </c>
       <c r="M2" t="n">
-        <v>0.34835</v>
+        <v>0.34839</v>
       </c>
       <c r="N2" t="n">
-        <v>3.0486</v>
+        <v>1.31763</v>
       </c>
       <c r="O2" t="n">
-        <v>5.2449</v>
+        <v>3.0368</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4316</v>
+        <v>5.2566</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.8483</v>
+        <v>1.344</v>
       </c>
       <c r="R2" t="n">
-        <v>4.5</v>
+        <v>1.2154</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.6302</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.5035</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3.9484</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.1428</v>
+      </c>
+      <c r="W2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.9748</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -599,52 +647,70 @@
         <v>0.8338</v>
       </c>
       <c r="E3" t="n">
-        <v>-22.0829</v>
+        <v>-22.2443</v>
       </c>
       <c r="F3" t="n">
         <v>1.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0009</v>
+        <v>-0.2981</v>
       </c>
       <c r="H3" t="n">
-        <v>1.0192</v>
+        <v>1.0193</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.3429</v>
+        <v>-2.5884</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9744</v>
+        <v>0.9743000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>-4.312</v>
+        <v>-4.4299</v>
       </c>
       <c r="L3" t="n">
-        <v>3.7484</v>
+        <v>3.8483</v>
       </c>
       <c r="M3" t="n">
-        <v>0.34841</v>
+        <v>0.34835</v>
       </c>
       <c r="N3" t="n">
-        <v>3.0604</v>
+        <v>1.31591</v>
       </c>
       <c r="O3" t="n">
-        <v>5.2332</v>
+        <v>3.0486</v>
       </c>
       <c r="P3" t="n">
-        <v>1.5192</v>
+        <v>5.2449</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.7484</v>
+        <v>1.4316</v>
       </c>
       <c r="R3" t="n">
-        <v>4.6</v>
+        <v>1.2179</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.6285</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.4942</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3.8483</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.1398</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.9761</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -657,52 +723,70 @@
         <v>0.8338</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.9221</v>
+        <v>-22.0829</v>
       </c>
       <c r="F4" t="n">
         <v>1.05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2998</v>
+        <v>0.0009</v>
       </c>
       <c r="H4" t="n">
-        <v>1.0191</v>
+        <v>1.0192</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.0976</v>
+        <v>-2.3429</v>
       </c>
       <c r="J4" t="n">
         <v>0.9744</v>
       </c>
       <c r="K4" t="n">
-        <v>-4.1943</v>
+        <v>-4.312</v>
       </c>
       <c r="L4" t="n">
-        <v>3.6486</v>
+        <v>3.7484</v>
       </c>
       <c r="M4" t="n">
-        <v>0.34857</v>
+        <v>0.34841</v>
       </c>
       <c r="N4" t="n">
-        <v>3.0722</v>
+        <v>1.31549</v>
       </c>
       <c r="O4" t="n">
-        <v>5.2215</v>
+        <v>3.0604</v>
       </c>
       <c r="P4" t="n">
-        <v>1.6067</v>
+        <v>5.2332</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.6486</v>
+        <v>1.5192</v>
       </c>
       <c r="R4" t="n">
-        <v>4.7</v>
+        <v>1.2205</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.6269</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.4852</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3.7484</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.1373</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.9781</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -712,55 +796,73 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8337</v>
+        <v>0.8338</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.7619</v>
+        <v>-21.9221</v>
       </c>
       <c r="F5" t="n">
         <v>1.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5986</v>
+        <v>0.2998</v>
       </c>
       <c r="H5" t="n">
         <v>1.0191</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.8525</v>
+        <v>-2.0976</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9745</v>
+        <v>0.9744</v>
       </c>
       <c r="K5" t="n">
-        <v>-4.0767</v>
+        <v>-4.1943</v>
       </c>
       <c r="L5" t="n">
-        <v>3.5488</v>
+        <v>3.6486</v>
       </c>
       <c r="M5" t="n">
-        <v>0.34883</v>
+        <v>0.34857</v>
       </c>
       <c r="N5" t="n">
-        <v>3.084</v>
+        <v>1.31636</v>
       </c>
       <c r="O5" t="n">
-        <v>5.2098</v>
+        <v>3.0722</v>
       </c>
       <c r="P5" t="n">
-        <v>1.6943</v>
+        <v>5.2215</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.5488</v>
+        <v>1.6067</v>
       </c>
       <c r="R5" t="n">
-        <v>4.8</v>
+        <v>1.2233</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.6254</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.4766</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3.6486</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.1356</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.9808</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -773,52 +875,70 @@
         <v>0.8337</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.6023</v>
+        <v>-21.7619</v>
       </c>
       <c r="F6" t="n">
         <v>1.05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8972</v>
+        <v>0.5986</v>
       </c>
       <c r="H6" t="n">
-        <v>1.019</v>
+        <v>1.0191</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.6075</v>
+        <v>-1.8525</v>
       </c>
       <c r="J6" t="n">
         <v>0.9745</v>
       </c>
       <c r="K6" t="n">
-        <v>-3.9592</v>
+        <v>-4.0767</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4492</v>
+        <v>3.5488</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3492</v>
+        <v>0.34883</v>
       </c>
       <c r="N6" t="n">
-        <v>3.0958</v>
+        <v>1.31852</v>
       </c>
       <c r="O6" t="n">
-        <v>5.1982</v>
+        <v>3.084</v>
       </c>
       <c r="P6" t="n">
-        <v>1.7818</v>
+        <v>5.2098</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.4492</v>
+        <v>1.6943</v>
       </c>
       <c r="R6" t="n">
-        <v>4.9</v>
+        <v>1.2261</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.624</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.4682</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3.5488</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.1344</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.9841</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -828,55 +948,73 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8336</v>
+        <v>0.8337</v>
       </c>
       <c r="E7" t="n">
-        <v>-21.4433</v>
+        <v>-21.6023</v>
       </c>
       <c r="F7" t="n">
         <v>1.05</v>
       </c>
       <c r="G7" t="n">
-        <v>1.1956</v>
+        <v>0.8972</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0189</v>
+        <v>1.019</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.3627</v>
+        <v>-1.6075</v>
       </c>
       <c r="J7" t="n">
         <v>0.9745</v>
       </c>
       <c r="K7" t="n">
-        <v>-3.8418</v>
+        <v>-3.9592</v>
       </c>
       <c r="L7" t="n">
-        <v>3.3497</v>
+        <v>3.4492</v>
       </c>
       <c r="M7" t="n">
-        <v>0.34966</v>
+        <v>0.3492</v>
       </c>
       <c r="N7" t="n">
-        <v>3.1076</v>
+        <v>1.32197</v>
       </c>
       <c r="O7" t="n">
-        <v>5.1865</v>
+        <v>3.0958</v>
       </c>
       <c r="P7" t="n">
-        <v>1.8693</v>
+        <v>5.1982</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.3497</v>
+        <v>1.7818</v>
       </c>
       <c r="R7" t="n">
-        <v>5</v>
+        <v>1.2291</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.6227</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.4602</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3.4492</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.1339</v>
+      </c>
+      <c r="W7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.9881</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -886,55 +1024,73 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8335</v>
+        <v>0.8336</v>
       </c>
       <c r="E8" t="n">
-        <v>-21.2848</v>
+        <v>-21.4433</v>
       </c>
       <c r="F8" t="n">
         <v>1.05</v>
       </c>
       <c r="G8" t="n">
-        <v>1.494</v>
+        <v>1.1956</v>
       </c>
       <c r="H8" t="n">
         <v>1.0189</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.1179</v>
+        <v>-1.3627</v>
       </c>
       <c r="J8" t="n">
         <v>0.9745</v>
       </c>
       <c r="K8" t="n">
-        <v>-3.7245</v>
+        <v>-3.8418</v>
       </c>
       <c r="L8" t="n">
-        <v>3.2502</v>
+        <v>3.3497</v>
       </c>
       <c r="M8" t="n">
-        <v>0.35023</v>
+        <v>0.34966</v>
       </c>
       <c r="N8" t="n">
-        <v>3.1194</v>
+        <v>1.32671</v>
       </c>
       <c r="O8" t="n">
-        <v>5.1749</v>
+        <v>3.1076</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9568</v>
+        <v>5.1865</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.2502</v>
+        <v>1.8693</v>
       </c>
       <c r="R8" t="n">
-        <v>5.1</v>
+        <v>1.2322</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.6216</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.4525</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3.3497</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.134</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.9927</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -947,52 +1103,70 @@
         <v>0.8335</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.127</v>
+        <v>-21.2848</v>
       </c>
       <c r="F9" t="n">
         <v>1.05</v>
       </c>
       <c r="G9" t="n">
-        <v>1.7922</v>
+        <v>1.494</v>
       </c>
       <c r="H9" t="n">
-        <v>1.0188</v>
+        <v>1.0189</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.8733</v>
+        <v>-1.1179</v>
       </c>
       <c r="J9" t="n">
         <v>0.9745</v>
       </c>
       <c r="K9" t="n">
-        <v>-3.6074</v>
+        <v>-3.7245</v>
       </c>
       <c r="L9" t="n">
-        <v>3.1509</v>
+        <v>3.2502</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3509</v>
+        <v>0.35023</v>
       </c>
       <c r="N9" t="n">
-        <v>3.1312</v>
+        <v>1.33273</v>
       </c>
       <c r="O9" t="n">
-        <v>5.1632</v>
+        <v>3.1194</v>
       </c>
       <c r="P9" t="n">
-        <v>2.0442</v>
+        <v>5.1749</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.1509</v>
+        <v>1.9568</v>
       </c>
       <c r="R9" t="n">
-        <v>5.2</v>
+        <v>1.2354</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.6205</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.4451</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3.2502</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.1348</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.998</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1002,55 +1176,73 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8333</v>
+        <v>0.8335</v>
       </c>
       <c r="E10" t="n">
-        <v>-20.9698</v>
+        <v>-21.127</v>
       </c>
       <c r="F10" t="n">
         <v>1.05</v>
       </c>
       <c r="G10" t="n">
-        <v>2.0903</v>
+        <v>1.7922</v>
       </c>
       <c r="H10" t="n">
-        <v>1.0187</v>
+        <v>1.0188</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6288</v>
+        <v>-0.8733</v>
       </c>
       <c r="J10" t="n">
         <v>0.9745</v>
       </c>
       <c r="K10" t="n">
-        <v>-3.4904</v>
+        <v>-3.6074</v>
       </c>
       <c r="L10" t="n">
-        <v>3.0517</v>
+        <v>3.1509</v>
       </c>
       <c r="M10" t="n">
-        <v>0.35167</v>
+        <v>0.3509</v>
       </c>
       <c r="N10" t="n">
-        <v>3.143</v>
+        <v>1.34004</v>
       </c>
       <c r="O10" t="n">
-        <v>5.1516</v>
+        <v>3.1312</v>
       </c>
       <c r="P10" t="n">
-        <v>2.1317</v>
+        <v>5.1632</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.0517</v>
+        <v>2.0442</v>
       </c>
       <c r="R10" t="n">
-        <v>5.3</v>
+        <v>1.2387</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.6196</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.4381</v>
+      </c>
+      <c r="U10" t="n">
+        <v>3.1509</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.1362</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.0039</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1060,55 +1252,73 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8332000000000001</v>
+        <v>0.8333</v>
       </c>
       <c r="E11" t="n">
-        <v>-20.8131</v>
+        <v>-20.9698</v>
       </c>
       <c r="F11" t="n">
         <v>1.05</v>
       </c>
       <c r="G11" t="n">
-        <v>2.3884</v>
+        <v>2.0903</v>
       </c>
       <c r="H11" t="n">
-        <v>1.0186</v>
+        <v>1.0187</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3843</v>
+        <v>-0.6288</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9744</v>
+        <v>0.9745</v>
       </c>
       <c r="K11" t="n">
-        <v>-3.3734</v>
+        <v>-3.4904</v>
       </c>
       <c r="L11" t="n">
-        <v>2.9525</v>
+        <v>3.0517</v>
       </c>
       <c r="M11" t="n">
-        <v>0.35254</v>
+        <v>0.35167</v>
       </c>
       <c r="N11" t="n">
-        <v>3.1548</v>
+        <v>1.34864</v>
       </c>
       <c r="O11" t="n">
-        <v>5.14</v>
+        <v>3.143</v>
       </c>
       <c r="P11" t="n">
-        <v>2.2191</v>
+        <v>5.1516</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.9525</v>
+        <v>2.1317</v>
       </c>
       <c r="R11" t="n">
-        <v>5.4</v>
+        <v>1.2421</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.6188</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.4314</v>
+      </c>
+      <c r="U11" t="n">
+        <v>3.0517</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.1382</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.0105</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1118,55 +1328,73 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8331</v>
+        <v>0.8332000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>-20.657</v>
+        <v>-20.8131</v>
       </c>
       <c r="F12" t="n">
         <v>1.05</v>
       </c>
       <c r="G12" t="n">
-        <v>2.6863</v>
+        <v>2.3884</v>
       </c>
       <c r="H12" t="n">
-        <v>1.0185</v>
+        <v>1.0186</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1399</v>
+        <v>-0.3843</v>
       </c>
       <c r="J12" t="n">
         <v>0.9744</v>
       </c>
       <c r="K12" t="n">
-        <v>-3.2566</v>
+        <v>-3.3734</v>
       </c>
       <c r="L12" t="n">
-        <v>2.8535</v>
+        <v>2.9525</v>
       </c>
       <c r="M12" t="n">
-        <v>0.35351</v>
+        <v>0.35254</v>
       </c>
       <c r="N12" t="n">
-        <v>3.1667</v>
+        <v>1.35851</v>
       </c>
       <c r="O12" t="n">
-        <v>5.1284</v>
+        <v>3.1548</v>
       </c>
       <c r="P12" t="n">
-        <v>2.3065</v>
+        <v>5.14</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.8535</v>
+        <v>2.2191</v>
       </c>
       <c r="R12" t="n">
-        <v>5.5</v>
+        <v>1.2456</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.618</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.425</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.9525</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.1408</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3.0177</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1176,55 +1404,73 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.833</v>
+        <v>0.8331</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.5015</v>
+        <v>-20.657</v>
       </c>
       <c r="F13" t="n">
         <v>1.05</v>
       </c>
       <c r="G13" t="n">
-        <v>2.9842</v>
+        <v>2.6863</v>
       </c>
       <c r="H13" t="n">
-        <v>1.0184</v>
+        <v>1.0185</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1044</v>
+        <v>-0.1399</v>
       </c>
       <c r="J13" t="n">
         <v>0.9744</v>
       </c>
       <c r="K13" t="n">
-        <v>-3.1399</v>
+        <v>-3.2566</v>
       </c>
       <c r="L13" t="n">
-        <v>2.7546</v>
+        <v>2.8535</v>
       </c>
       <c r="M13" t="n">
-        <v>0.35458</v>
+        <v>0.35351</v>
       </c>
       <c r="N13" t="n">
-        <v>3.1785</v>
+        <v>1.36967</v>
       </c>
       <c r="O13" t="n">
-        <v>5.1169</v>
+        <v>3.1667</v>
       </c>
       <c r="P13" t="n">
-        <v>2.3939</v>
+        <v>5.1284</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.7546</v>
+        <v>2.3065</v>
       </c>
       <c r="R13" t="n">
-        <v>5.6</v>
+        <v>1.2493</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.6174</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.4189</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.8535</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.1441</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.0256</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1234,55 +1480,73 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8328</v>
+        <v>0.833</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.3465</v>
+        <v>-20.5015</v>
       </c>
       <c r="F14" t="n">
         <v>1.05</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2821</v>
+        <v>2.9842</v>
       </c>
       <c r="H14" t="n">
-        <v>1.0183</v>
+        <v>1.0184</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3486</v>
+        <v>0.1044</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9743000000000001</v>
+        <v>0.9744</v>
       </c>
       <c r="K14" t="n">
-        <v>-3.0232</v>
+        <v>-3.1399</v>
       </c>
       <c r="L14" t="n">
-        <v>2.6558</v>
+        <v>2.7546</v>
       </c>
       <c r="M14" t="n">
-        <v>0.35575</v>
+        <v>0.35458</v>
       </c>
       <c r="N14" t="n">
-        <v>3.1903</v>
+        <v>1.38211</v>
       </c>
       <c r="O14" t="n">
-        <v>5.1053</v>
+        <v>3.1785</v>
       </c>
       <c r="P14" t="n">
-        <v>2.4813</v>
+        <v>5.1169</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.6558</v>
+        <v>2.3939</v>
       </c>
       <c r="R14" t="n">
-        <v>5.7</v>
+        <v>1.2531</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.6169</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.4131</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.7546</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.148</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3.0341</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1292,55 +1556,73 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8326</v>
+        <v>0.8328</v>
       </c>
       <c r="E15" t="n">
-        <v>-20.1921</v>
+        <v>-20.3465</v>
       </c>
       <c r="F15" t="n">
         <v>1.05</v>
       </c>
       <c r="G15" t="n">
-        <v>3.5799</v>
+        <v>3.2821</v>
       </c>
       <c r="H15" t="n">
-        <v>1.0182</v>
+        <v>1.0183</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5928</v>
+        <v>0.3486</v>
       </c>
       <c r="J15" t="n">
         <v>0.9743000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>-2.9067</v>
+        <v>-3.0232</v>
       </c>
       <c r="L15" t="n">
-        <v>2.557</v>
+        <v>2.6558</v>
       </c>
       <c r="M15" t="n">
-        <v>0.35703</v>
+        <v>0.35575</v>
       </c>
       <c r="N15" t="n">
-        <v>3.2021</v>
+        <v>1.39583</v>
       </c>
       <c r="O15" t="n">
-        <v>5.0938</v>
+        <v>3.1903</v>
       </c>
       <c r="P15" t="n">
-        <v>2.5687</v>
+        <v>5.1053</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.557</v>
+        <v>2.4813</v>
       </c>
       <c r="R15" t="n">
-        <v>5.8</v>
+        <v>1.257</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.6166</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.4077</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.6558</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.1525</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3.0433</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1350,55 +1632,73 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8325</v>
+        <v>0.8326</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.0382</v>
+        <v>-20.1921</v>
       </c>
       <c r="F16" t="n">
         <v>1.05</v>
       </c>
       <c r="G16" t="n">
-        <v>3.8776</v>
+        <v>3.5799</v>
       </c>
       <c r="H16" t="n">
-        <v>1.018</v>
+        <v>1.0182</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8369</v>
+        <v>0.5928</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9742</v>
+        <v>0.9743000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>-2.7902</v>
+        <v>-2.9067</v>
       </c>
       <c r="L16" t="n">
-        <v>2.4584</v>
+        <v>2.557</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3584</v>
+        <v>0.35703</v>
       </c>
       <c r="N16" t="n">
-        <v>3.2139</v>
+        <v>1.41083</v>
       </c>
       <c r="O16" t="n">
-        <v>5.0823</v>
+        <v>3.2021</v>
       </c>
       <c r="P16" t="n">
-        <v>2.656</v>
+        <v>5.0938</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.4584</v>
+        <v>2.5687</v>
       </c>
       <c r="R16" t="n">
-        <v>5.9</v>
+        <v>1.2609</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.6163</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.4025</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.557</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.1577</v>
+      </c>
+      <c r="W16" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3.0532</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1408,55 +1708,73 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8323</v>
+        <v>0.8325</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.8849</v>
+        <v>-20.0382</v>
       </c>
       <c r="F17" t="n">
         <v>1.05</v>
       </c>
       <c r="G17" t="n">
-        <v>4.1754</v>
+        <v>3.8776</v>
       </c>
       <c r="H17" t="n">
-        <v>1.0179</v>
+        <v>1.018</v>
       </c>
       <c r="I17" t="n">
-        <v>1.0811</v>
+        <v>0.8369</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9741</v>
+        <v>0.9742</v>
       </c>
       <c r="K17" t="n">
-        <v>-2.6738</v>
+        <v>-2.7902</v>
       </c>
       <c r="L17" t="n">
-        <v>2.3599</v>
+        <v>2.4584</v>
       </c>
       <c r="M17" t="n">
-        <v>0.35988</v>
+        <v>0.3584</v>
       </c>
       <c r="N17" t="n">
-        <v>3.2257</v>
+        <v>1.42711</v>
       </c>
       <c r="O17" t="n">
-        <v>5.0708</v>
+        <v>3.2139</v>
       </c>
       <c r="P17" t="n">
-        <v>2.7434</v>
+        <v>5.0823</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.3599</v>
+        <v>2.656</v>
       </c>
       <c r="R17" t="n">
-        <v>6</v>
+        <v>1.2651</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.6161</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.3977</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.4584</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.1634</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3.0637</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1466,55 +1784,73 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.832</v>
+        <v>0.8323</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.7322</v>
+        <v>-19.8849</v>
       </c>
       <c r="F18" t="n">
         <v>1.05</v>
       </c>
       <c r="G18" t="n">
-        <v>4.4731</v>
+        <v>4.1754</v>
       </c>
       <c r="H18" t="n">
-        <v>1.0178</v>
+        <v>1.0179</v>
       </c>
       <c r="I18" t="n">
-        <v>1.3252</v>
+        <v>1.0811</v>
       </c>
       <c r="J18" t="n">
-        <v>0.974</v>
+        <v>0.9741</v>
       </c>
       <c r="K18" t="n">
-        <v>-2.5575</v>
+        <v>-2.6738</v>
       </c>
       <c r="L18" t="n">
-        <v>2.2615</v>
+        <v>2.3599</v>
       </c>
       <c r="M18" t="n">
-        <v>0.36145</v>
+        <v>0.35988</v>
       </c>
       <c r="N18" t="n">
-        <v>3.2375</v>
+        <v>1.44468</v>
       </c>
       <c r="O18" t="n">
-        <v>5.0593</v>
+        <v>3.2257</v>
       </c>
       <c r="P18" t="n">
-        <v>2.8307</v>
+        <v>5.0708</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.2615</v>
+        <v>2.7434</v>
       </c>
       <c r="R18" t="n">
-        <v>6.1</v>
+        <v>1.2693</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.6161</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.3933</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.3599</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.1698</v>
+      </c>
+      <c r="W18" t="n">
+        <v>6</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3.0748</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1524,55 +1860,73 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8318</v>
+        <v>0.832</v>
       </c>
       <c r="E19" t="n">
-        <v>-19.5799</v>
+        <v>-19.7322</v>
       </c>
       <c r="F19" t="n">
         <v>1.05</v>
       </c>
       <c r="G19" t="n">
-        <v>4.7708</v>
+        <v>4.4731</v>
       </c>
       <c r="H19" t="n">
-        <v>1.0176</v>
+        <v>1.0178</v>
       </c>
       <c r="I19" t="n">
-        <v>1.5693</v>
+        <v>1.3252</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9739</v>
+        <v>0.974</v>
       </c>
       <c r="K19" t="n">
-        <v>-2.4413</v>
+        <v>-2.5575</v>
       </c>
       <c r="L19" t="n">
-        <v>2.1631</v>
+        <v>2.2615</v>
       </c>
       <c r="M19" t="n">
-        <v>0.36313</v>
+        <v>0.36145</v>
       </c>
       <c r="N19" t="n">
-        <v>3.2493</v>
+        <v>1.46353</v>
       </c>
       <c r="O19" t="n">
-        <v>5.0478</v>
+        <v>3.2375</v>
       </c>
       <c r="P19" t="n">
-        <v>2.918</v>
+        <v>5.0593</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.1631</v>
+        <v>2.8307</v>
       </c>
       <c r="R19" t="n">
-        <v>6.2</v>
+        <v>1.2736</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.6161</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.3891</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.2615</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.1769</v>
+      </c>
+      <c r="W19" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3.0867</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1582,55 +1936,73 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8316</v>
+        <v>0.8318</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.4282</v>
+        <v>-19.5799</v>
       </c>
       <c r="F20" t="n">
         <v>1.05</v>
       </c>
       <c r="G20" t="n">
-        <v>5.0686</v>
+        <v>4.7708</v>
       </c>
       <c r="H20" t="n">
-        <v>1.0175</v>
+        <v>1.0176</v>
       </c>
       <c r="I20" t="n">
-        <v>1.8134</v>
+        <v>1.5693</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9738</v>
+        <v>0.9739</v>
       </c>
       <c r="K20" t="n">
-        <v>-2.3251</v>
+        <v>-2.4413</v>
       </c>
       <c r="L20" t="n">
-        <v>2.0649</v>
+        <v>2.1631</v>
       </c>
       <c r="M20" t="n">
-        <v>0.36491</v>
+        <v>0.36313</v>
       </c>
       <c r="N20" t="n">
-        <v>3.2611</v>
+        <v>1.48366</v>
       </c>
       <c r="O20" t="n">
-        <v>5.0364</v>
+        <v>3.2493</v>
       </c>
       <c r="P20" t="n">
-        <v>3.0053</v>
+        <v>5.0478</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.0649</v>
+        <v>2.918</v>
       </c>
       <c r="R20" t="n">
-        <v>6.3</v>
+        <v>1.2781</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.6163</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.3853</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.1631</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.1845</v>
+      </c>
+      <c r="W20" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>3.0991</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1640,55 +2012,73 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8313</v>
+        <v>0.8316</v>
       </c>
       <c r="E21" t="n">
-        <v>-19.277</v>
+        <v>-19.4282</v>
       </c>
       <c r="F21" t="n">
         <v>1.05</v>
       </c>
       <c r="G21" t="n">
-        <v>5.3663</v>
+        <v>5.0686</v>
       </c>
       <c r="H21" t="n">
-        <v>1.0174</v>
+        <v>1.0175</v>
       </c>
       <c r="I21" t="n">
-        <v>2.0575</v>
+        <v>1.8134</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9737</v>
+        <v>0.9738</v>
       </c>
       <c r="K21" t="n">
-        <v>-2.209</v>
+        <v>-2.3251</v>
       </c>
       <c r="L21" t="n">
-        <v>1.9668</v>
+        <v>2.0649</v>
       </c>
       <c r="M21" t="n">
-        <v>0.36679</v>
+        <v>0.36491</v>
       </c>
       <c r="N21" t="n">
-        <v>3.273</v>
+        <v>1.50507</v>
       </c>
       <c r="O21" t="n">
-        <v>5.025</v>
+        <v>3.2611</v>
       </c>
       <c r="P21" t="n">
-        <v>3.0925</v>
+        <v>5.0364</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.9668</v>
+        <v>3.0053</v>
       </c>
       <c r="R21" t="n">
-        <v>6.4</v>
+        <v>1.2827</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.6166</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.3817</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.0649</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.1928</v>
+      </c>
+      <c r="W21" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X21" t="n">
+        <v>3.1123</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1698,55 +2088,73 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8310999999999999</v>
+        <v>0.8313</v>
       </c>
       <c r="E22" t="n">
-        <v>-19.1264</v>
+        <v>-19.277</v>
       </c>
       <c r="F22" t="n">
         <v>1.05</v>
       </c>
       <c r="G22" t="n">
-        <v>5.6641</v>
+        <v>5.3663</v>
       </c>
       <c r="H22" t="n">
-        <v>1.0172</v>
+        <v>1.0174</v>
       </c>
       <c r="I22" t="n">
-        <v>2.3016</v>
+        <v>2.0575</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9736</v>
+        <v>0.9737</v>
       </c>
       <c r="K22" t="n">
-        <v>-2.093</v>
+        <v>-2.209</v>
       </c>
       <c r="L22" t="n">
-        <v>1.8688</v>
+        <v>1.9668</v>
       </c>
       <c r="M22" t="n">
-        <v>0.36877</v>
+        <v>0.36679</v>
       </c>
       <c r="N22" t="n">
-        <v>3.2848</v>
+        <v>1.52777</v>
       </c>
       <c r="O22" t="n">
-        <v>5.0135</v>
+        <v>3.273</v>
       </c>
       <c r="P22" t="n">
-        <v>3.1798</v>
+        <v>5.025</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.8688</v>
+        <v>3.0925</v>
       </c>
       <c r="R22" t="n">
-        <v>6.5</v>
+        <v>1.2874</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.617</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.3786</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.9668</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.2017</v>
+      </c>
+      <c r="W22" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X22" t="n">
+        <v>3.1261</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1756,55 +2164,73 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8308</v>
+        <v>0.8310999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>-18.9763</v>
+        <v>-19.1264</v>
       </c>
       <c r="F23" t="n">
         <v>1.05</v>
       </c>
       <c r="G23" t="n">
-        <v>5.9619</v>
+        <v>5.6641</v>
       </c>
       <c r="H23" t="n">
-        <v>1.017</v>
+        <v>1.0172</v>
       </c>
       <c r="I23" t="n">
-        <v>2.5458</v>
+        <v>2.3016</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9735</v>
+        <v>0.9736</v>
       </c>
       <c r="K23" t="n">
-        <v>-1.9771</v>
+        <v>-2.093</v>
       </c>
       <c r="L23" t="n">
-        <v>1.7709</v>
+        <v>1.8688</v>
       </c>
       <c r="M23" t="n">
-        <v>0.37085</v>
+        <v>0.36877</v>
       </c>
       <c r="N23" t="n">
-        <v>3.2966</v>
+        <v>1.55176</v>
       </c>
       <c r="O23" t="n">
-        <v>5.0022</v>
+        <v>3.2848</v>
       </c>
       <c r="P23" t="n">
-        <v>3.267</v>
+        <v>5.0135</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.7709</v>
+        <v>3.1798</v>
       </c>
       <c r="R23" t="n">
-        <v>6.6</v>
+        <v>1.2922</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.6175</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.3757</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.8688</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.2112</v>
+      </c>
+      <c r="W23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>3.1406</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1814,55 +2240,73 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8305</v>
+        <v>0.8308</v>
       </c>
       <c r="E24" t="n">
-        <v>-18.8267</v>
+        <v>-18.9763</v>
       </c>
       <c r="F24" t="n">
         <v>1.05</v>
       </c>
       <c r="G24" t="n">
-        <v>6.2598</v>
+        <v>5.9619</v>
       </c>
       <c r="H24" t="n">
-        <v>1.0169</v>
+        <v>1.017</v>
       </c>
       <c r="I24" t="n">
-        <v>2.79</v>
+        <v>2.5458</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9734</v>
+        <v>0.9735</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.8612</v>
+        <v>-1.9771</v>
       </c>
       <c r="L24" t="n">
-        <v>1.673</v>
+        <v>1.7709</v>
       </c>
       <c r="M24" t="n">
-        <v>0.37304</v>
+        <v>0.37085</v>
       </c>
       <c r="N24" t="n">
-        <v>3.3083</v>
+        <v>1.57704</v>
       </c>
       <c r="O24" t="n">
-        <v>4.9908</v>
+        <v>3.2966</v>
       </c>
       <c r="P24" t="n">
-        <v>3.3543</v>
+        <v>5.0022</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.673</v>
+        <v>3.267</v>
       </c>
       <c r="R24" t="n">
-        <v>6.7</v>
+        <v>1.2971</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.6181</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.3731</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.7709</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.2214</v>
+      </c>
+      <c r="W24" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X24" t="n">
+        <v>3.1557</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1872,55 +2316,73 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8302</v>
+        <v>0.8305</v>
       </c>
       <c r="E25" t="n">
-        <v>-18.6776</v>
+        <v>-18.8267</v>
       </c>
       <c r="F25" t="n">
         <v>1.05</v>
       </c>
       <c r="G25" t="n">
-        <v>6.5578</v>
+        <v>6.2598</v>
       </c>
       <c r="H25" t="n">
-        <v>1.0167</v>
+        <v>1.0169</v>
       </c>
       <c r="I25" t="n">
-        <v>3.0342</v>
+        <v>2.79</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9732</v>
+        <v>0.9734</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.7453</v>
+        <v>-1.8612</v>
       </c>
       <c r="L25" t="n">
-        <v>1.5753</v>
+        <v>1.673</v>
       </c>
       <c r="M25" t="n">
-        <v>0.37532</v>
+        <v>0.37304</v>
       </c>
       <c r="N25" t="n">
-        <v>3.3201</v>
+        <v>1.6036</v>
       </c>
       <c r="O25" t="n">
-        <v>4.9794</v>
+        <v>3.3083</v>
       </c>
       <c r="P25" t="n">
-        <v>3.4415</v>
+        <v>4.9908</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.5753</v>
+        <v>3.3543</v>
       </c>
       <c r="R25" t="n">
-        <v>6.8</v>
+        <v>1.3022</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.6188</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.3709</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.2321</v>
+      </c>
+      <c r="W25" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="X25" t="n">
+        <v>3.1715</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1930,55 +2392,73 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8299</v>
+        <v>0.8302</v>
       </c>
       <c r="E26" t="n">
-        <v>-18.529</v>
+        <v>-18.6776</v>
       </c>
       <c r="F26" t="n">
         <v>1.05</v>
       </c>
       <c r="G26" t="n">
-        <v>6.8558</v>
+        <v>6.5578</v>
       </c>
       <c r="H26" t="n">
-        <v>1.0165</v>
+        <v>1.0167</v>
       </c>
       <c r="I26" t="n">
-        <v>3.2786</v>
+        <v>3.0342</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9731</v>
+        <v>0.9732</v>
       </c>
       <c r="K26" t="n">
-        <v>-1.6295</v>
+        <v>-1.7453</v>
       </c>
       <c r="L26" t="n">
-        <v>1.4777</v>
+        <v>1.5753</v>
       </c>
       <c r="M26" t="n">
-        <v>0.37771</v>
+        <v>0.37532</v>
       </c>
       <c r="N26" t="n">
-        <v>3.3319</v>
+        <v>1.63146</v>
       </c>
       <c r="O26" t="n">
-        <v>4.9681</v>
+        <v>3.3201</v>
       </c>
       <c r="P26" t="n">
-        <v>3.5287</v>
+        <v>4.9794</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.4777</v>
+        <v>3.4415</v>
       </c>
       <c r="R26" t="n">
-        <v>6.9</v>
+        <v>1.3074</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.6196</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.369</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.5753</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.2435</v>
+      </c>
+      <c r="W26" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X26" t="n">
+        <v>3.1879</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1988,55 +2468,73 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8295</v>
+        <v>0.8299</v>
       </c>
       <c r="E27" t="n">
-        <v>-18.3809</v>
+        <v>-18.529</v>
       </c>
       <c r="F27" t="n">
         <v>1.05</v>
       </c>
       <c r="G27" t="n">
-        <v>7.1539</v>
+        <v>6.8558</v>
       </c>
       <c r="H27" t="n">
-        <v>1.0163</v>
+        <v>1.0165</v>
       </c>
       <c r="I27" t="n">
-        <v>3.523</v>
+        <v>3.2786</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9729</v>
+        <v>0.9731</v>
       </c>
       <c r="K27" t="n">
-        <v>-1.5138</v>
+        <v>-1.6295</v>
       </c>
       <c r="L27" t="n">
-        <v>1.3802</v>
+        <v>1.4777</v>
       </c>
       <c r="M27" t="n">
-        <v>0.3802</v>
+        <v>0.37771</v>
       </c>
       <c r="N27" t="n">
-        <v>3.3437</v>
+        <v>1.66061</v>
       </c>
       <c r="O27" t="n">
-        <v>4.9568</v>
+        <v>3.3319</v>
       </c>
       <c r="P27" t="n">
-        <v>3.6159</v>
+        <v>4.9681</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.3802</v>
+        <v>3.5287</v>
       </c>
       <c r="R27" t="n">
-        <v>7</v>
+        <v>1.3127</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.6206</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.3674</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.4777</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.2556</v>
+      </c>
+      <c r="W27" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="X27" t="n">
+        <v>3.2051</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2046,55 +2544,73 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8292</v>
+        <v>0.8295</v>
       </c>
       <c r="E28" t="n">
-        <v>-18.2334</v>
+        <v>-18.3809</v>
       </c>
       <c r="F28" t="n">
         <v>1.05</v>
       </c>
       <c r="G28" t="n">
-        <v>7.4521</v>
+        <v>7.1539</v>
       </c>
       <c r="H28" t="n">
-        <v>1.0162</v>
+        <v>1.0163</v>
       </c>
       <c r="I28" t="n">
-        <v>3.7674</v>
+        <v>3.523</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9727</v>
+        <v>0.9729</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.3981</v>
+        <v>-1.5138</v>
       </c>
       <c r="L28" t="n">
-        <v>1.2828</v>
+        <v>1.3802</v>
       </c>
       <c r="M28" t="n">
-        <v>0.38279</v>
+        <v>0.3802</v>
       </c>
       <c r="N28" t="n">
-        <v>3.3555</v>
+        <v>1.69106</v>
       </c>
       <c r="O28" t="n">
-        <v>4.9455</v>
+        <v>3.3437</v>
       </c>
       <c r="P28" t="n">
-        <v>3.7031</v>
+        <v>4.9568</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.2828</v>
+        <v>3.6159</v>
       </c>
       <c r="R28" t="n">
-        <v>7.1</v>
+        <v>1.3181</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.6217</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.3661</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.3802</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.2682</v>
+      </c>
+      <c r="W28" t="n">
+        <v>7</v>
+      </c>
+      <c r="X28" t="n">
+        <v>3.2228</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2104,55 +2620,73 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8288</v>
+        <v>0.8292</v>
       </c>
       <c r="E29" t="n">
-        <v>-18.0863</v>
+        <v>-18.2334</v>
       </c>
       <c r="F29" t="n">
         <v>1.05</v>
       </c>
       <c r="G29" t="n">
-        <v>7.7504</v>
+        <v>7.4521</v>
       </c>
       <c r="H29" t="n">
-        <v>1.016</v>
+        <v>1.0162</v>
       </c>
       <c r="I29" t="n">
-        <v>4.012</v>
+        <v>3.7674</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9726</v>
+        <v>0.9727</v>
       </c>
       <c r="K29" t="n">
-        <v>-1.2824</v>
+        <v>-1.3981</v>
       </c>
       <c r="L29" t="n">
-        <v>1.1855</v>
+        <v>1.2828</v>
       </c>
       <c r="M29" t="n">
-        <v>0.38549</v>
+        <v>0.38279</v>
       </c>
       <c r="N29" t="n">
-        <v>3.3673</v>
+        <v>1.72281</v>
       </c>
       <c r="O29" t="n">
-        <v>4.9343</v>
+        <v>3.3555</v>
       </c>
       <c r="P29" t="n">
-        <v>3.7902</v>
+        <v>4.9455</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.1855</v>
+        <v>3.7031</v>
       </c>
       <c r="R29" t="n">
-        <v>7.2</v>
+        <v>1.3236</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.6229</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.3652</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.2828</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.2815</v>
+      </c>
+      <c r="W29" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="X29" t="n">
+        <v>3.2413</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2162,55 +2696,73 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8284</v>
+        <v>0.8288</v>
       </c>
       <c r="E30" t="n">
-        <v>-17.9398</v>
+        <v>-18.0863</v>
       </c>
       <c r="F30" t="n">
         <v>1.05</v>
       </c>
       <c r="G30" t="n">
-        <v>8.0489</v>
+        <v>7.7504</v>
       </c>
       <c r="H30" t="n">
-        <v>1.0158</v>
+        <v>1.016</v>
       </c>
       <c r="I30" t="n">
-        <v>4.2567</v>
+        <v>4.012</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9724</v>
+        <v>0.9726</v>
       </c>
       <c r="K30" t="n">
-        <v>-1.1668</v>
+        <v>-1.2824</v>
       </c>
       <c r="L30" t="n">
-        <v>1.0883</v>
+        <v>1.1855</v>
       </c>
       <c r="M30" t="n">
-        <v>0.38828</v>
+        <v>0.38549</v>
       </c>
       <c r="N30" t="n">
-        <v>3.379</v>
+        <v>1.75586</v>
       </c>
       <c r="O30" t="n">
-        <v>4.923</v>
+        <v>3.3673</v>
       </c>
       <c r="P30" t="n">
-        <v>3.8774</v>
+        <v>4.9343</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.0883</v>
+        <v>3.7902</v>
       </c>
       <c r="R30" t="n">
-        <v>7.3</v>
+        <v>1.3293</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.6242</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.3645</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.1855</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.2954</v>
+      </c>
+      <c r="W30" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3.2604</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2220,55 +2772,73 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.828</v>
+        <v>0.8284</v>
       </c>
       <c r="E31" t="n">
-        <v>-17.7937</v>
+        <v>-17.9398</v>
       </c>
       <c r="F31" t="n">
         <v>1.05</v>
       </c>
       <c r="G31" t="n">
-        <v>8.3474</v>
+        <v>8.0489</v>
       </c>
       <c r="H31" t="n">
-        <v>1.0156</v>
+        <v>1.0158</v>
       </c>
       <c r="I31" t="n">
-        <v>4.5015</v>
+        <v>4.2567</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9722</v>
+        <v>0.9724</v>
       </c>
       <c r="K31" t="n">
-        <v>-1.0512</v>
+        <v>-1.1668</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9912</v>
+        <v>1.0883</v>
       </c>
       <c r="M31" t="n">
-        <v>0.39119</v>
+        <v>0.38828</v>
       </c>
       <c r="N31" t="n">
-        <v>3.3908</v>
+        <v>1.79022</v>
       </c>
       <c r="O31" t="n">
-        <v>4.9118</v>
+        <v>3.379</v>
       </c>
       <c r="P31" t="n">
-        <v>3.9645</v>
+        <v>4.923</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.9912</v>
+        <v>3.8774</v>
       </c>
       <c r="R31" t="n">
-        <v>7.4</v>
+        <v>1.3351</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.6256</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.3642</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.0883</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W31" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3.2803</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2278,55 +2848,73 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8276</v>
+        <v>0.828</v>
       </c>
       <c r="E32" t="n">
-        <v>-17.6482</v>
+        <v>-17.7937</v>
       </c>
       <c r="F32" t="n">
         <v>1.05</v>
       </c>
       <c r="G32" t="n">
-        <v>8.646100000000001</v>
+        <v>8.3474</v>
       </c>
       <c r="H32" t="n">
-        <v>1.0154</v>
+        <v>1.0156</v>
       </c>
       <c r="I32" t="n">
-        <v>4.7464</v>
+        <v>4.5015</v>
       </c>
       <c r="J32" t="n">
-        <v>0.972</v>
+        <v>0.9722</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.9357</v>
+        <v>-1.0512</v>
       </c>
       <c r="L32" t="n">
-        <v>0.8942</v>
+        <v>0.9912</v>
       </c>
       <c r="M32" t="n">
-        <v>0.39419</v>
+        <v>0.39119</v>
       </c>
       <c r="N32" t="n">
-        <v>3.4026</v>
+        <v>1.82588</v>
       </c>
       <c r="O32" t="n">
-        <v>4.9006</v>
+        <v>3.3908</v>
       </c>
       <c r="P32" t="n">
-        <v>4.0517</v>
+        <v>4.9118</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.8942</v>
+        <v>3.9645</v>
       </c>
       <c r="R32" t="n">
-        <v>7.5</v>
+        <v>1.341</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.6271</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.3643</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.9912</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.3251</v>
+      </c>
+      <c r="W32" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="X32" t="n">
+        <v>3.3008</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2336,55 +2924,73 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8272</v>
+        <v>0.8276</v>
       </c>
       <c r="E33" t="n">
-        <v>-17.5031</v>
+        <v>-17.6482</v>
       </c>
       <c r="F33" t="n">
         <v>1.05</v>
       </c>
       <c r="G33" t="n">
-        <v>8.945</v>
+        <v>8.646100000000001</v>
       </c>
       <c r="H33" t="n">
-        <v>1.0151</v>
+        <v>1.0154</v>
       </c>
       <c r="I33" t="n">
-        <v>4.9914</v>
+        <v>4.7464</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9718</v>
+        <v>0.972</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.8202</v>
+        <v>-0.9357</v>
       </c>
       <c r="L33" t="n">
-        <v>0.7973</v>
+        <v>0.8942</v>
       </c>
       <c r="M33" t="n">
-        <v>0.3973</v>
+        <v>0.39419</v>
       </c>
       <c r="N33" t="n">
-        <v>3.4143</v>
+        <v>1.86285</v>
       </c>
       <c r="O33" t="n">
-        <v>4.8894</v>
+        <v>3.4026</v>
       </c>
       <c r="P33" t="n">
-        <v>4.1388</v>
+        <v>4.9006</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7973</v>
+        <v>4.0517</v>
       </c>
       <c r="R33" t="n">
-        <v>7.6</v>
+        <v>1.347</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.6287</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.3646</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.8942</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.3409</v>
+      </c>
+      <c r="W33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>3.3219</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2394,55 +3000,73 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8268</v>
+        <v>0.8272</v>
       </c>
       <c r="E34" t="n">
-        <v>-17.3586</v>
+        <v>-17.5031</v>
       </c>
       <c r="F34" t="n">
         <v>1.05</v>
       </c>
       <c r="G34" t="n">
-        <v>9.244</v>
+        <v>8.945</v>
       </c>
       <c r="H34" t="n">
-        <v>1.0149</v>
+        <v>1.0151</v>
       </c>
       <c r="I34" t="n">
-        <v>5.2366</v>
+        <v>4.9914</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9715</v>
+        <v>0.9718</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.7047</v>
+        <v>-0.8202</v>
       </c>
       <c r="L34" t="n">
-        <v>0.7005</v>
+        <v>0.7973</v>
       </c>
       <c r="M34" t="n">
-        <v>0.40051</v>
+        <v>0.3973</v>
       </c>
       <c r="N34" t="n">
-        <v>3.4261</v>
+        <v>1.90114</v>
       </c>
       <c r="O34" t="n">
-        <v>4.8783</v>
+        <v>3.4143</v>
       </c>
       <c r="P34" t="n">
-        <v>4.2259</v>
+        <v>4.8894</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.7005</v>
+        <v>4.1388</v>
       </c>
       <c r="R34" t="n">
-        <v>7.7</v>
+        <v>1.3532</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.6305</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.3653</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.7973</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.3574</v>
+      </c>
+      <c r="W34" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X34" t="n">
+        <v>3.3438</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2452,55 +3076,73 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8263</v>
+        <v>0.8268</v>
       </c>
       <c r="E35" t="n">
-        <v>-17.2145</v>
+        <v>-17.3586</v>
       </c>
       <c r="F35" t="n">
         <v>1.05</v>
       </c>
       <c r="G35" t="n">
-        <v>9.543200000000001</v>
+        <v>9.244</v>
       </c>
       <c r="H35" t="n">
-        <v>1.0147</v>
+        <v>1.0149</v>
       </c>
       <c r="I35" t="n">
-        <v>5.4819</v>
+        <v>5.2366</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9713000000000001</v>
+        <v>0.9715</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.5891999999999999</v>
+        <v>-0.7047</v>
       </c>
       <c r="L35" t="n">
-        <v>0.6038</v>
+        <v>0.7005</v>
       </c>
       <c r="M35" t="n">
-        <v>0.40383</v>
+        <v>0.40051</v>
       </c>
       <c r="N35" t="n">
-        <v>3.4378</v>
+        <v>1.94075</v>
       </c>
       <c r="O35" t="n">
-        <v>4.8672</v>
+        <v>3.4261</v>
       </c>
       <c r="P35" t="n">
-        <v>4.313</v>
+        <v>4.8783</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.6038</v>
+        <v>4.2259</v>
       </c>
       <c r="R35" t="n">
-        <v>7.8</v>
+        <v>1.3595</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.6324</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.3663</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.7005</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.3744</v>
+      </c>
+      <c r="W35" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="X35" t="n">
+        <v>3.3663</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2510,55 +3152,73 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8258</v>
+        <v>0.8263</v>
       </c>
       <c r="E36" t="n">
-        <v>-17.071</v>
+        <v>-17.2145</v>
       </c>
       <c r="F36" t="n">
         <v>1.05</v>
       </c>
       <c r="G36" t="n">
-        <v>9.842599999999999</v>
+        <v>9.543200000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>1.0145</v>
+        <v>1.0147</v>
       </c>
       <c r="I36" t="n">
-        <v>5.7274</v>
+        <v>5.4819</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9711</v>
+        <v>0.9713000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.4738</v>
+        <v>-0.5891999999999999</v>
       </c>
       <c r="L36" t="n">
-        <v>0.5072</v>
+        <v>0.6038</v>
       </c>
       <c r="M36" t="n">
-        <v>0.40725</v>
+        <v>0.40383</v>
       </c>
       <c r="N36" t="n">
-        <v>3.4495</v>
+        <v>1.98169</v>
       </c>
       <c r="O36" t="n">
-        <v>4.8561</v>
+        <v>3.4378</v>
       </c>
       <c r="P36" t="n">
-        <v>4.4001</v>
+        <v>4.8672</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.5072</v>
+        <v>4.313</v>
       </c>
       <c r="R36" t="n">
-        <v>7.9</v>
+        <v>1.3659</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.6344</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.3676</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.6038</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.3921</v>
+      </c>
+      <c r="W36" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X36" t="n">
+        <v>3.3896</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2568,55 +3228,73 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8254</v>
+        <v>0.8258</v>
       </c>
       <c r="E37" t="n">
-        <v>-16.9279</v>
+        <v>-17.071</v>
       </c>
       <c r="F37" t="n">
         <v>1.05</v>
       </c>
       <c r="G37" t="n">
-        <v>10.1422</v>
+        <v>9.842599999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>1.0142</v>
+        <v>1.0145</v>
       </c>
       <c r="I37" t="n">
-        <v>5.9731</v>
+        <v>5.7274</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9708</v>
+        <v>0.9711</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.3583</v>
+        <v>-0.4738</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4108</v>
+        <v>0.5072</v>
       </c>
       <c r="M37" t="n">
-        <v>0.41077</v>
+        <v>0.40725</v>
       </c>
       <c r="N37" t="n">
-        <v>3.4613</v>
+        <v>2.02395</v>
       </c>
       <c r="O37" t="n">
-        <v>4.845</v>
+        <v>3.4495</v>
       </c>
       <c r="P37" t="n">
-        <v>4.4871</v>
+        <v>4.8561</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4108</v>
+        <v>4.4001</v>
       </c>
       <c r="R37" t="n">
-        <v>8</v>
+        <v>1.3724</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.6365</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.3693</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.5072</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.4105</v>
+      </c>
+      <c r="W37" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="X37" t="n">
+        <v>3.4135</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2626,55 +3304,73 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8249</v>
+        <v>0.8254</v>
       </c>
       <c r="E38" t="n">
-        <v>-16.7853</v>
+        <v>-16.9279</v>
       </c>
       <c r="F38" t="n">
         <v>1.05</v>
       </c>
       <c r="G38" t="n">
-        <v>10.442</v>
+        <v>10.1422</v>
       </c>
       <c r="H38" t="n">
-        <v>1.014</v>
+        <v>1.0142</v>
       </c>
       <c r="I38" t="n">
-        <v>6.219</v>
+        <v>5.9731</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9706</v>
+        <v>0.9708</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.2429</v>
+        <v>-0.3583</v>
       </c>
       <c r="L38" t="n">
-        <v>0.3144</v>
+        <v>0.4108</v>
       </c>
       <c r="M38" t="n">
-        <v>0.4144</v>
+        <v>0.41077</v>
       </c>
       <c r="N38" t="n">
-        <v>3.473</v>
+        <v>2.06754</v>
       </c>
       <c r="O38" t="n">
-        <v>4.8339</v>
+        <v>3.4613</v>
       </c>
       <c r="P38" t="n">
-        <v>4.5742</v>
+        <v>4.845</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.3144</v>
+        <v>4.4871</v>
       </c>
       <c r="R38" t="n">
-        <v>8.1</v>
+        <v>1.3791</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.6388</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.3713</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.4108</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.4295</v>
+      </c>
+      <c r="W38" t="n">
+        <v>8</v>
+      </c>
+      <c r="X38" t="n">
+        <v>3.4381</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2684,55 +3380,73 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8244</v>
+        <v>0.8249</v>
       </c>
       <c r="E39" t="n">
-        <v>-16.6433</v>
+        <v>-16.7853</v>
       </c>
       <c r="F39" t="n">
         <v>1.05</v>
       </c>
       <c r="G39" t="n">
-        <v>10.7421</v>
+        <v>10.442</v>
       </c>
       <c r="H39" t="n">
-        <v>1.0137</v>
+        <v>1.014</v>
       </c>
       <c r="I39" t="n">
-        <v>6.4651</v>
+        <v>6.219</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9703000000000001</v>
+        <v>0.9706</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.1275</v>
+        <v>-0.2429</v>
       </c>
       <c r="L39" t="n">
-        <v>0.2181</v>
+        <v>0.3144</v>
       </c>
       <c r="M39" t="n">
-        <v>0.41814</v>
+        <v>0.4144</v>
       </c>
       <c r="N39" t="n">
-        <v>3.4847</v>
+        <v>2.11248</v>
       </c>
       <c r="O39" t="n">
-        <v>4.8229</v>
+        <v>3.473</v>
       </c>
       <c r="P39" t="n">
-        <v>4.6613</v>
+        <v>4.8339</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.2181</v>
+        <v>4.5742</v>
       </c>
       <c r="R39" t="n">
-        <v>8.199999999999999</v>
+        <v>1.3859</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2.6411</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.3736</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.3144</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.4491</v>
+      </c>
+      <c r="W39" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="X39" t="n">
+        <v>3.4634</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2742,55 +3456,73 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8238</v>
+        <v>0.8244</v>
       </c>
       <c r="E40" t="n">
-        <v>-16.5017</v>
+        <v>-16.6433</v>
       </c>
       <c r="F40" t="n">
         <v>1.05</v>
       </c>
       <c r="G40" t="n">
-        <v>11.0424</v>
+        <v>10.7421</v>
       </c>
       <c r="H40" t="n">
-        <v>1.0135</v>
+        <v>1.0137</v>
       </c>
       <c r="I40" t="n">
-        <v>6.7114</v>
+        <v>6.4651</v>
       </c>
       <c r="J40" t="n">
-        <v>0.97</v>
+        <v>0.9703000000000001</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0121</v>
+        <v>-0.1275</v>
       </c>
       <c r="L40" t="n">
-        <v>0.122</v>
+        <v>0.2181</v>
       </c>
       <c r="M40" t="n">
-        <v>0.42198</v>
+        <v>0.41814</v>
       </c>
       <c r="N40" t="n">
-        <v>3.4964</v>
+        <v>2.15875</v>
       </c>
       <c r="O40" t="n">
-        <v>4.8119</v>
+        <v>3.4847</v>
       </c>
       <c r="P40" t="n">
-        <v>4.7483</v>
+        <v>4.8229</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.122</v>
+        <v>4.6613</v>
       </c>
       <c r="R40" t="n">
-        <v>8.300000000000001</v>
+        <v>1.3929</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2.6436</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.3762</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.2181</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.4693</v>
+      </c>
+      <c r="W40" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="X40" t="n">
+        <v>3.4894</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2800,397 +3532,67 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8233</v>
+        <v>0.8238</v>
       </c>
       <c r="E41" t="n">
-        <v>-16.3606</v>
+        <v>-16.5017</v>
       </c>
       <c r="F41" t="n">
         <v>1.05</v>
       </c>
       <c r="G41" t="n">
-        <v>11.3429</v>
+        <v>11.0424</v>
       </c>
       <c r="H41" t="n">
-        <v>1.0132</v>
+        <v>1.0135</v>
       </c>
       <c r="I41" t="n">
-        <v>6.9579</v>
+        <v>6.7114</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9697</v>
+        <v>0.97</v>
       </c>
       <c r="K41" t="n">
-        <v>0.1033</v>
+        <v>-0.0121</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0259</v>
+        <v>0.122</v>
       </c>
       <c r="M41" t="n">
-        <v>0.42593</v>
+        <v>0.42198</v>
       </c>
       <c r="N41" t="n">
-        <v>3.5081</v>
+        <v>2.20637</v>
       </c>
       <c r="O41" t="n">
-        <v>4.801</v>
+        <v>3.4964</v>
       </c>
       <c r="P41" t="n">
-        <v>4.8354</v>
+        <v>4.8119</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.0259</v>
+        <v>4.7483</v>
       </c>
       <c r="R41" t="n">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.8227</v>
-      </c>
-      <c r="E42" t="n">
-        <v>-16.22</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="G42" t="n">
-        <v>11.6436</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1.013</v>
-      </c>
-      <c r="I42" t="n">
-        <v>7.2046</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.9694</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.2187</v>
-      </c>
-      <c r="L42" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.42999</v>
-      </c>
-      <c r="N42" t="n">
-        <v>3.5198</v>
-      </c>
-      <c r="O42" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4.9224</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="R42" t="n">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>9.4</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.8222</v>
-      </c>
-      <c r="E43" t="n">
-        <v>-16.0799</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="G43" t="n">
-        <v>11.9447</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1.0127</v>
-      </c>
-      <c r="I43" t="n">
-        <v>7.4516</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.9691</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.3342</v>
-      </c>
-      <c r="L43" t="n">
-        <v>-0.1658</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.43416</v>
-      </c>
-      <c r="N43" t="n">
-        <v>3.5314</v>
-      </c>
-      <c r="O43" t="n">
-        <v>4.7791</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5.0094</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>-0.1658</v>
-      </c>
-      <c r="R43" t="n">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.8216</v>
-      </c>
-      <c r="E44" t="n">
-        <v>-15.9403</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="G44" t="n">
-        <v>12.246</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1.0124</v>
-      </c>
-      <c r="I44" t="n">
-        <v>7.6988</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.9688</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.4496</v>
-      </c>
-      <c r="L44" t="n">
-        <v>-0.2616</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.43843</v>
-      </c>
-      <c r="N44" t="n">
-        <v>3.5431</v>
-      </c>
-      <c r="O44" t="n">
-        <v>4.7682</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5.0964</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>-0.2616</v>
-      </c>
-      <c r="R44" t="n">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.821</v>
-      </c>
-      <c r="E45" t="n">
-        <v>-15.8012</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="G45" t="n">
-        <v>12.5477</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1.0121</v>
-      </c>
-      <c r="I45" t="n">
-        <v>7.9463</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.9685</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.5649999999999999</v>
-      </c>
-      <c r="L45" t="n">
-        <v>-0.3572</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.44281</v>
-      </c>
-      <c r="N45" t="n">
-        <v>3.5548</v>
-      </c>
-      <c r="O45" t="n">
-        <v>4.7574</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5.1834</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>-0.3572</v>
-      </c>
-      <c r="R45" t="n">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>9.7</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.8203</v>
-      </c>
-      <c r="E46" t="n">
-        <v>-15.6626</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="G46" t="n">
-        <v>12.8496</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1.0118</v>
-      </c>
-      <c r="I46" t="n">
-        <v>8.194100000000001</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.9681999999999999</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.6805</v>
-      </c>
-      <c r="L46" t="n">
-        <v>-0.4527</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.4473</v>
-      </c>
-      <c r="N46" t="n">
-        <v>3.5664</v>
-      </c>
-      <c r="O46" t="n">
-        <v>4.7466</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5.2705</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>-0.4527</v>
-      </c>
-      <c r="R46" t="n">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>9.8</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.8197</v>
-      </c>
-      <c r="E47" t="n">
-        <v>-15.5245</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="G47" t="n">
-        <v>13.1519</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1.0115</v>
-      </c>
-      <c r="I47" t="n">
-        <v>8.4421</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.9678</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.7959000000000001</v>
-      </c>
-      <c r="L47" t="n">
-        <v>-0.5481</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.45191</v>
-      </c>
-      <c r="N47" t="n">
-        <v>3.578</v>
-      </c>
-      <c r="O47" t="n">
-        <v>4.7358</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5.3574</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>-0.5481</v>
-      </c>
-      <c r="R47" t="n">
-        <v>9</v>
+        <v>1.3999</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.6462</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.3792</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.4902</v>
+      </c>
+      <c r="W41" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="X41" t="n">
+        <v>3.5161</v>
       </c>
     </row>
   </sheetData>
